--- a/data/trans_orig/ESTADO_CIVIL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Clase-trans_orig.xlsx
@@ -4377,12 +4377,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9167,12 +9167,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -9182,12 +9182,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -9280,12 +9280,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9295,12 +9295,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9393,12 +9393,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9408,12 +9408,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -14198,12 +14198,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -14311,12 +14311,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -14424,12 +14424,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -19312,97 +19312,97 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K35" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="N35" s="2" t="inlineStr">
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -19425,97 +19425,97 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ESTADO_CIVIL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ESTADO_CIVIL-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en País Vasco</t>
+          <t>Estado civil en País Vasco (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5562,7 +5562,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Andalucia</t>
+          <t>Estado civil en Andalucia (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10578,7 +10578,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en C.Valenciana</t>
+          <t>Estado civil en C.Valenciana (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15594,7 +15594,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado civil en Barcelona</t>
+          <t>Estado civil en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
